--- a/benchmarks/cscs2022/xlsx/Random/140.xlsx
+++ b/benchmarks/cscs2022/xlsx/Random/140.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnsai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PHD\P.h.D papers\Paper_Integer Programming Based Optimization of Power Consumption for DCNs\Solvers\New  benchmarks\New  benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732F643D-CBE0-41C5-8F68-102B3D7C0704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0CECBD-BC94-4429-9B05-472AC7716CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,434 +35,440 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>f6</t>
-  </si>
-  <si>
-    <t>f7</t>
-  </si>
-  <si>
-    <t>f8</t>
-  </si>
-  <si>
-    <t>f9</t>
-  </si>
-  <si>
-    <t>f10</t>
-  </si>
-  <si>
-    <t>f11</t>
-  </si>
-  <si>
-    <t>f12</t>
-  </si>
-  <si>
-    <t>f13</t>
-  </si>
-  <si>
-    <t>f14</t>
-  </si>
-  <si>
-    <t>f15</t>
-  </si>
-  <si>
-    <t>f16</t>
-  </si>
-  <si>
-    <t>f17</t>
-  </si>
-  <si>
-    <t>f18</t>
-  </si>
-  <si>
-    <t>f19</t>
-  </si>
-  <si>
-    <t>f20</t>
-  </si>
-  <si>
-    <t>f21</t>
-  </si>
-  <si>
-    <t>f22</t>
-  </si>
-  <si>
-    <t>f23</t>
-  </si>
-  <si>
-    <t>f24</t>
-  </si>
-  <si>
-    <t>f25</t>
-  </si>
-  <si>
-    <t>f26</t>
-  </si>
-  <si>
-    <t>f27</t>
-  </si>
-  <si>
-    <t>f28</t>
-  </si>
-  <si>
-    <t>f29</t>
-  </si>
-  <si>
-    <t>f30</t>
-  </si>
-  <si>
-    <t>f31</t>
-  </si>
-  <si>
-    <t>f32</t>
-  </si>
-  <si>
-    <t>f33</t>
-  </si>
-  <si>
-    <t>f34</t>
-  </si>
-  <si>
-    <t>f35</t>
-  </si>
-  <si>
-    <t>f36</t>
-  </si>
-  <si>
-    <t>f37</t>
-  </si>
-  <si>
-    <t>f38</t>
-  </si>
-  <si>
-    <t>f39</t>
-  </si>
-  <si>
-    <t>f40</t>
-  </si>
-  <si>
-    <t>f41</t>
-  </si>
-  <si>
-    <t>f42</t>
-  </si>
-  <si>
-    <t>f43</t>
-  </si>
-  <si>
-    <t>f44</t>
-  </si>
-  <si>
-    <t>f45</t>
-  </si>
-  <si>
-    <t>f46</t>
-  </si>
-  <si>
-    <t>f47</t>
-  </si>
-  <si>
-    <t>f48</t>
-  </si>
-  <si>
-    <t>f49</t>
-  </si>
-  <si>
-    <t>f50</t>
-  </si>
-  <si>
-    <t>f51</t>
-  </si>
-  <si>
-    <t>f52</t>
-  </si>
-  <si>
-    <t>f53</t>
-  </si>
-  <si>
-    <t>f54</t>
-  </si>
-  <si>
-    <t>f55</t>
-  </si>
-  <si>
-    <t>f56</t>
-  </si>
-  <si>
-    <t>f57</t>
-  </si>
-  <si>
-    <t>f58</t>
-  </si>
-  <si>
-    <t>f59</t>
-  </si>
-  <si>
-    <t>f60</t>
-  </si>
-  <si>
-    <t>f61</t>
-  </si>
-  <si>
-    <t>f62</t>
-  </si>
-  <si>
-    <t>f63</t>
-  </si>
-  <si>
-    <t>f64</t>
-  </si>
-  <si>
-    <t>f65</t>
-  </si>
-  <si>
-    <t>f66</t>
-  </si>
-  <si>
-    <t>f67</t>
-  </si>
-  <si>
-    <t>f68</t>
-  </si>
-  <si>
-    <t>f69</t>
-  </si>
-  <si>
-    <t>f70</t>
-  </si>
-  <si>
-    <t>f71</t>
-  </si>
-  <si>
-    <t>f72</t>
-  </si>
-  <si>
-    <t>f73</t>
-  </si>
-  <si>
-    <t>f74</t>
-  </si>
-  <si>
-    <t>f75</t>
-  </si>
-  <si>
-    <t>f76</t>
-  </si>
-  <si>
-    <t>f77</t>
-  </si>
-  <si>
-    <t>f78</t>
-  </si>
-  <si>
-    <t>f79</t>
-  </si>
-  <si>
-    <t>f80</t>
-  </si>
-  <si>
-    <t>f81</t>
-  </si>
-  <si>
-    <t>f82</t>
-  </si>
-  <si>
-    <t>f83</t>
-  </si>
-  <si>
-    <t>f84</t>
-  </si>
-  <si>
-    <t>f85</t>
-  </si>
-  <si>
-    <t>f86</t>
-  </si>
-  <si>
-    <t>f87</t>
-  </si>
-  <si>
-    <t>f88</t>
-  </si>
-  <si>
-    <t>f89</t>
-  </si>
-  <si>
-    <t>f90</t>
-  </si>
-  <si>
-    <t>f91</t>
-  </si>
-  <si>
-    <t>f92</t>
-  </si>
-  <si>
-    <t>f93</t>
-  </si>
-  <si>
-    <t>f94</t>
-  </si>
-  <si>
-    <t>f95</t>
-  </si>
-  <si>
-    <t>f96</t>
-  </si>
-  <si>
-    <t>f97</t>
-  </si>
-  <si>
-    <t>f98</t>
-  </si>
-  <si>
-    <t>f99</t>
-  </si>
-  <si>
-    <t>f100</t>
-  </si>
-  <si>
-    <t>f101</t>
-  </si>
-  <si>
-    <t>f102</t>
-  </si>
-  <si>
-    <t>f103</t>
-  </si>
-  <si>
-    <t>f104</t>
-  </si>
-  <si>
-    <t>f105</t>
-  </si>
-  <si>
-    <t>f106</t>
-  </si>
-  <si>
-    <t>f107</t>
-  </si>
-  <si>
-    <t>f108</t>
-  </si>
-  <si>
-    <t>f109</t>
-  </si>
-  <si>
-    <t>f110</t>
-  </si>
-  <si>
-    <t>f111</t>
-  </si>
-  <si>
-    <t>f112</t>
-  </si>
-  <si>
-    <t>f113</t>
-  </si>
-  <si>
-    <t>f114</t>
-  </si>
-  <si>
-    <t>f115</t>
-  </si>
-  <si>
-    <t>f116</t>
-  </si>
-  <si>
-    <t>f117</t>
-  </si>
-  <si>
-    <t>f118</t>
-  </si>
-  <si>
-    <t>f119</t>
-  </si>
-  <si>
-    <t>f120</t>
-  </si>
-  <si>
-    <t>f121</t>
-  </si>
-  <si>
-    <t>f122</t>
-  </si>
-  <si>
-    <t>f123</t>
-  </si>
-  <si>
-    <t>f124</t>
-  </si>
-  <si>
-    <t>f125</t>
-  </si>
-  <si>
-    <t>f126</t>
-  </si>
-  <si>
-    <t>f127</t>
-  </si>
-  <si>
-    <t>f128</t>
-  </si>
-  <si>
-    <t>f129</t>
-  </si>
-  <si>
-    <t>f130</t>
-  </si>
-  <si>
-    <t>f131</t>
-  </si>
-  <si>
-    <t>f132</t>
-  </si>
-  <si>
-    <t>f133</t>
-  </si>
-  <si>
-    <t>f134</t>
-  </si>
-  <si>
-    <t>f135</t>
-  </si>
-  <si>
-    <t>f136</t>
-  </si>
-  <si>
-    <t>f137</t>
-  </si>
-  <si>
-    <t>f138</t>
-  </si>
-  <si>
-    <t>f139</t>
-  </si>
-  <si>
-    <t>f140</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F97</t>
+  </si>
+  <si>
+    <t>F98</t>
+  </si>
+  <si>
+    <t>F99</t>
+  </si>
+  <si>
+    <t>F100</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>F103</t>
+  </si>
+  <si>
+    <t>F104</t>
+  </si>
+  <si>
+    <t>F105</t>
+  </si>
+  <si>
+    <t>F106</t>
+  </si>
+  <si>
+    <t>F107</t>
+  </si>
+  <si>
+    <t>F108</t>
+  </si>
+  <si>
+    <t>F109</t>
+  </si>
+  <si>
+    <t>F110</t>
+  </si>
+  <si>
+    <t>F111</t>
+  </si>
+  <si>
+    <t>F112</t>
+  </si>
+  <si>
+    <t>F113</t>
+  </si>
+  <si>
+    <t>F114</t>
+  </si>
+  <si>
+    <t>F115</t>
+  </si>
+  <si>
+    <t>F116</t>
+  </si>
+  <si>
+    <t>F117</t>
+  </si>
+  <si>
+    <t>F118</t>
+  </si>
+  <si>
+    <t>F119</t>
+  </si>
+  <si>
+    <t>F120</t>
+  </si>
+  <si>
+    <t>F121</t>
+  </si>
+  <si>
+    <t>F122</t>
+  </si>
+  <si>
+    <t>F123</t>
+  </si>
+  <si>
+    <t>F124</t>
+  </si>
+  <si>
+    <t>F125</t>
+  </si>
+  <si>
+    <t>F126</t>
+  </si>
+  <si>
+    <t>F127</t>
+  </si>
+  <si>
+    <t>F128</t>
+  </si>
+  <si>
+    <t>F129</t>
+  </si>
+  <si>
+    <t>F130</t>
+  </si>
+  <si>
+    <t>F131</t>
+  </si>
+  <si>
+    <t>F132</t>
+  </si>
+  <si>
+    <t>F133</t>
+  </si>
+  <si>
+    <t>F134</t>
+  </si>
+  <si>
+    <t>F135</t>
+  </si>
+  <si>
+    <t>F136</t>
+  </si>
+  <si>
+    <t>F137</t>
+  </si>
+  <si>
+    <t>F138</t>
+  </si>
+  <si>
+    <t>F139</t>
+  </si>
+  <si>
+    <t>F140</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -774,7 +780,7 @@
   <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="1">
-        <v>85.367164820987</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -807,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>28.706590689173208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -821,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>91.172992151381564</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -835,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>21.288033544780131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -849,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>55.800451564347917</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -863,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>34.189872056768088</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -877,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>83.324373723255562</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -891,7 +897,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>0.21503064186646598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -905,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>49.672078271153644</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -919,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1">
-        <v>99.344156542307289</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -933,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>101.17191699817224</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -947,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1">
-        <v>105.47252983550155</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -961,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1">
-        <v>21.503064186646597</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -975,7 +981,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>86.119772067519619</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -989,7 +995,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>84.829588216320815</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1003,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="1">
-        <v>48.489409740888078</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1017,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="1">
-        <v>3.3329749489302225</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1031,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>63.03819827776551</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1045,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>106.0940604990064</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1059,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="1">
-        <v>81.91653786707883</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>73.415765069551782</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1087,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="1">
-        <v>52.439832192536983</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1101,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="1">
-        <v>68.447780967100897</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1115,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="1">
-        <v>5.2991830426142634</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1129,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="1">
-        <v>94.281298299845446</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1143,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="1">
-        <v>43.718260101567672</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1157,7 +1163,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="1">
-        <v>15.124751600794879</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1171,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="1">
-        <v>29.47670567454184</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1185,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="1">
-        <v>64.804592625303599</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1199,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="1">
-        <v>71.538971075292551</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1213,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="1">
-        <v>103.44446897769927</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1227,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="1">
-        <v>73.636564362994037</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1241,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="1">
-        <v>45.705453742548023</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="1">
-        <v>59.660175639557082</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1269,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>8.113783886979764</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1283,7 +1289,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="1">
-        <v>0.28636884306987404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1297,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="1">
-        <v>83.046964490263463</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1311,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="1">
-        <v>48.014509354715535</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1325,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="D39" s="1">
-        <v>64.051164566628486</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1339,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="1">
-        <v>88.774341351660937</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1353,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="1">
-        <v>40.473463153875528</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1367,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="1">
-        <v>51.450935471554025</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1381,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="1">
-        <v>49.923634975181365</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1395,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="1">
-        <v>82.283314242077125</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1409,7 +1415,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="1">
-        <v>45.437189767086672</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1423,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="1">
-        <v>87.247040855288276</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1437,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="1">
-        <v>70.924016800305452</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1451,7 +1457,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="1">
-        <v>30.164184803360062</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1465,7 +1471,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="1">
-        <v>4.6773577701412759</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1479,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="1">
-        <v>92.783505154639172</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1493,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="1">
-        <v>53.073692248949982</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1507,7 +1513,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="1">
-        <v>23.195876288659793</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1521,7 +1527,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="1">
-        <v>16.418480336006109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1535,7 +1541,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="1">
-        <v>8.8377723970944313</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1549,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="1">
-        <v>51.08958837772397</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1563,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="1">
-        <v>83.656174334140431</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1577,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="D57" s="1">
-        <v>44.794188861985475</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1591,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="D58" s="1">
-        <v>57.384987893462466</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1605,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="1">
-        <v>27.239709443099272</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1619,7 +1625,7 @@
         <v>12</v>
       </c>
       <c r="D60" s="1">
-        <v>93.704600484261505</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1633,7 +1639,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="1">
-        <v>116.34382566585955</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1647,7 +1653,7 @@
         <v>12</v>
       </c>
       <c r="D62" s="1">
-        <v>16.222760290556902</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1661,7 +1667,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="1">
-        <v>3.6319612590799033</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1675,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="1">
-        <v>120.94430992736078</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1689,7 +1695,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="1">
-        <v>54.116222760290562</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1703,7 +1709,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="1">
-        <v>40.314769975786923</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1717,7 +1723,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="1">
-        <v>78.571428571428569</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1731,7 +1737,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="1">
-        <v>32.808716707021787</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1745,7 +1751,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="1">
-        <v>70.581113801452787</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1759,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="1">
-        <v>99.757869249394673</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1773,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="1">
-        <v>21.297192642787994</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1787,7 +1793,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="1">
-        <v>63.117134559535337</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1801,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="1">
-        <v>85.575992255566305</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1815,7 +1821,7 @@
         <v>13</v>
       </c>
       <c r="D74" s="1">
-        <v>18.586640851887704</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1829,7 +1835,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="1">
-        <v>96.708615682478225</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1843,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="D76" s="1">
-        <v>59.535333978702809</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1857,7 +1863,7 @@
         <v>13</v>
       </c>
       <c r="D77" s="1">
-        <v>67.182962245885776</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1871,7 +1877,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="1">
-        <v>71.636011616650535</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1885,7 +1891,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="1">
-        <v>92.061955469506302</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1899,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="D80" s="1">
-        <v>41.819941916747339</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1913,7 +1919,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="1">
-        <v>71.829622458857699</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1927,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="1">
-        <v>60.019361084220712</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1941,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="1">
-        <v>84.898354307841231</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1955,7 +1961,7 @@
         <v>13</v>
       </c>
       <c r="D84" s="1">
-        <v>45.014520813165539</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1969,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="1">
-        <v>35.430784123910939</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1983,7 +1989,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="1">
-        <v>47.821878025169404</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1997,7 +2003,7 @@
         <v>14</v>
       </c>
       <c r="D87" s="1">
-        <v>17.888843370203471</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2011,7 +2017,7 @@
         <v>14</v>
       </c>
       <c r="D88" s="1">
-        <v>93.814010651372385</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2025,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="D89" s="1">
-        <v>34.821794346579267</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2039,7 +2045,7 @@
         <v>14</v>
       </c>
       <c r="D90" s="1">
-        <v>21.302744776730847</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2053,7 +2059,7 @@
         <v>14</v>
       </c>
       <c r="D91" s="1">
-        <v>77.290727843779862</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2067,7 +2073,7 @@
         <v>14</v>
       </c>
       <c r="D92" s="1">
-        <v>9.6954799945377577</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2081,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="D93" s="1">
-        <v>11.197596613409804</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2095,7 +2101,7 @@
         <v>14</v>
       </c>
       <c r="D94" s="1">
-        <v>62.269561655059405</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2109,7 +2115,7 @@
         <v>14</v>
       </c>
       <c r="D95" s="1">
-        <v>12.972825344804042</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2123,7 +2129,7 @@
         <v>14</v>
       </c>
       <c r="D96" s="1">
-        <v>97.910692339205241</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2137,7 +2143,7 @@
         <v>14</v>
       </c>
       <c r="D97" s="1">
-        <v>85.893759388228872</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2151,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="D98" s="1">
-        <v>134.91738358596203</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2165,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="D99" s="1">
-        <v>32.773453502662846</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2179,7 +2185,7 @@
         <v>14</v>
       </c>
       <c r="D100" s="1">
-        <v>68.141472074286483</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2193,7 +2199,7 @@
         <v>14</v>
       </c>
       <c r="D101" s="1">
-        <v>130.95725795439029</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2207,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="D102" s="1">
-        <v>31.134780827529703</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2221,7 +2227,7 @@
         <v>14</v>
       </c>
       <c r="D103" s="1">
-        <v>56.534207292093399</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2235,7 +2241,7 @@
         <v>14</v>
       </c>
       <c r="D104" s="1">
-        <v>20.483408439164275</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2249,7 +2255,7 @@
         <v>15</v>
       </c>
       <c r="D105" s="1">
-        <v>61.745776347546261</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2263,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="1">
-        <v>38.81737731295253</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2277,7 +2283,7 @@
         <v>15</v>
       </c>
       <c r="D107" s="1">
-        <v>30.269509251810135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2291,7 +2297,7 @@
         <v>15</v>
       </c>
       <c r="D108" s="1">
-        <v>21.319388576025741</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2305,7 +2311,7 @@
         <v>15</v>
       </c>
       <c r="D109" s="1">
-        <v>44.147224456958966</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2319,7 +2325,7 @@
         <v>15</v>
       </c>
       <c r="D110" s="1">
-        <v>73.310539018503619</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2333,7 +2339,7 @@
         <v>15</v>
       </c>
       <c r="D111" s="1">
-        <v>42.940466613032982</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2347,7 +2353,7 @@
         <v>15</v>
       </c>
       <c r="D112" s="1">
-        <v>72.405470635559126</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2361,7 +2367,7 @@
         <v>15</v>
       </c>
       <c r="D113" s="1">
-        <v>76.327433628318573</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2375,7 +2381,7 @@
         <v>15</v>
       </c>
       <c r="D114" s="1">
-        <v>12.670957361222849</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2389,7 +2395,7 @@
         <v>15</v>
       </c>
       <c r="D115" s="1">
-        <v>97.043443282381332</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2403,7 +2409,7 @@
         <v>15</v>
       </c>
       <c r="D116" s="1">
-        <v>87.389380530973455</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2417,7 +2423,7 @@
         <v>15</v>
       </c>
       <c r="D117" s="1">
-        <v>86.38374899436846</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2431,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="D118" s="1">
-        <v>68.584070796460168</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2445,7 +2451,7 @@
         <v>15</v>
       </c>
       <c r="D119" s="1">
-        <v>64.460981496379731</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2459,7 +2465,7 @@
         <v>15</v>
       </c>
       <c r="D120" s="1">
-        <v>13.37489943684634</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2473,7 +2479,7 @@
         <v>16</v>
       </c>
       <c r="D121" s="1">
-        <v>21.000750026786672</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2487,7 +2493,7 @@
         <v>16</v>
       </c>
       <c r="D122" s="1">
-        <v>14.893389049608913</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2501,7 +2507,7 @@
         <v>16</v>
       </c>
       <c r="D123" s="1">
-        <v>92.896174863387984</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2515,7 +2521,7 @@
         <v>16</v>
       </c>
       <c r="D124" s="1">
-        <v>35.036965605914496</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2529,7 +2535,7 @@
         <v>16</v>
       </c>
       <c r="D125" s="1">
-        <v>31.715418407800282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2543,7 +2549,7 @@
         <v>16</v>
       </c>
       <c r="D126" s="1">
-        <v>2.678667095253402</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2557,7 +2563,7 @@
         <v>16</v>
       </c>
       <c r="D127" s="1">
-        <v>86.253080467159549</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2571,7 +2577,7 @@
         <v>16</v>
       </c>
       <c r="D128" s="1">
-        <v>20.572163291546126</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2585,7 +2591,7 @@
         <v>16</v>
       </c>
       <c r="D129" s="1">
-        <v>13.929068895317689</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2599,7 +2605,7 @@
         <v>16</v>
       </c>
       <c r="D130" s="1">
-        <v>92.681881495767712</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2613,7 +2619,7 @@
         <v>16</v>
       </c>
       <c r="D131" s="1">
-        <v>77.681345762348656</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2627,7 +2633,7 @@
         <v>16</v>
       </c>
       <c r="D132" s="1">
-        <v>104.68231008250295</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2641,7 +2647,7 @@
         <v>16</v>
       </c>
       <c r="D133" s="1">
-        <v>43.93014036215579</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2655,7 +2661,7 @@
         <v>16</v>
       </c>
       <c r="D134" s="1">
-        <v>3.1072538304939461</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2669,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="D135" s="1">
-        <v>64.073716918461386</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2683,7 +2689,7 @@
         <v>16</v>
       </c>
       <c r="D136" s="1">
-        <v>16.17914925533055</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2697,7 +2703,7 @@
         <v>16</v>
       </c>
       <c r="D137" s="1">
-        <v>104.78945676631308</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2711,7 +2717,7 @@
         <v>16</v>
       </c>
       <c r="D138" s="1">
-        <v>21.965070181077895</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2725,7 +2731,7 @@
         <v>16</v>
       </c>
       <c r="D139" s="1">
-        <v>1.2857602057216329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2739,10 +2745,11 @@
         <v>16</v>
       </c>
       <c r="D140" s="1">
-        <v>14.893389049608913</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>